--- a/xlsx/美国领土_intext.xlsx
+++ b/xlsx/美国领土_intext.xlsx
@@ -15,1145 +15,1142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
   <si>
     <t>美国领土</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国领土</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Commonwealth_(U.S._state)</t>
+  </si>
+  <si>
+    <t>en-Commonwealth (U.S. state)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Commonwealth_(U.S._insular_area)</t>
+  </si>
+  <si>
+    <t>en-Commonwealth (U.S. insular area)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%82%A6_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>自由邦 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_federally_recognized_tribes</t>
+  </si>
+  <si>
+    <t>en-List of federally recognized tribes</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Borough_(United_States)</t>
+  </si>
+  <si>
+    <t>en-Borough (United States)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Consolidated_city-county</t>
+  </si>
+  <si>
+    <t>en-Consolidated city-county</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Independent_city_(United_States)</t>
+  </si>
+  <si>
+    <t>en-Independent city (United States)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>路易斯安那州行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>阿拉斯加州行政区划</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unorganized_Borough,_Alaska</t>
+  </si>
+  <si>
+    <t>en-Unorganized Borough, Alaska</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_recognized_tribes_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-State recognized tribes in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>按人口排列的美国城市列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_towns_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-List of towns in the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_places_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-List of places in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E5%8D%80_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>镇区 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Consolidated_city-township</t>
+  </si>
+  <si>
+    <t>en-Consolidated city-township</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chapter_house_(Navajo_Nation)</t>
+  </si>
+  <si>
+    <t>en-Chapter house (Navajo Nation)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E9%82%BB%E7%A4%BE%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>近邻社区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美属萨摩亚行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>关岛行政区划</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Districts_and_sub-districts_of_the_United_States_Virgin_Islands</t>
+  </si>
+  <si>
+    <t>en-Districts and sub-districts of the United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Municipalities_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Municipalities of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Protected_areas_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Protected areas of the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Conservation_district</t>
+  </si>
+  <si>
+    <t>en-Conservation district</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
+  </si>
+  <si>
+    <t>国家纪念区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
+  </si>
+  <si>
+    <t>en-List of United States congressional districts</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88%E7%AE%A1%E7%90%86%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>公寓大厦管理委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%94%E5%90%88%E5%8D%8F%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>自由联合协定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%9F%BA%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>军事基地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>非建制地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%95%87</t>
+  </si>
+  <si>
+    <t>鬼镇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%88%92%E5%88%86</t>
+  </si>
+  <si>
+    <t>Template talk-美国行政划分</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%88%E5%B9%B6%E5%BB%BA%E5%88%B6%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国合并建制领土</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第六修正案</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rio_Rico,_Texas</t>
+  </si>
+  <si>
+    <t>en-Rio Rico, Texas</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
+  </si>
+  <si>
+    <t>夏威夷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%A2%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>西北领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>美西战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%82%A6</t>
+  </si>
+  <si>
+    <t>自治邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E5%88%B6</t>
+  </si>
+  <si>
+    <t>建制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guano_Islands_Act</t>
+  </si>
+  <si>
+    <t>en-Guano Islands Act</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E7%B1%B3%E6%8B%89%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>巴尔米拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国内政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Km%C2%B2</t>
+  </si>
+  <si>
+    <t>Km²</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AA%80%E9%A6%99%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>檀香山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>夏威夷王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>夏威夷共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E9%A0%98%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>夏威夷领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>美国非建制属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E9%82%A3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚那群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E8%87%AA%E7%94%B1%E9%82%A6</t>
+  </si>
+  <si>
+    <t>波多黎各自由邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%85%8B%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E5%85%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E7%BB%B4%E6%96%AF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E7%BA%B3%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉纳浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%BC%97%E6%B2%99%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳弗沙岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>莱恩群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
+  </si>
+  <si>
+    <t>基里巴斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E9%81%8B%E6%B2%B3%E5%8D%80</t>
+  </si>
+  <si>
+    <t>巴拿马运河区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E8%BF%90%E6%B2%B3%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>巴拿马运河条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%8A%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>马伊斯群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E5%8D%A1%E5%A4%9A%E7%88%BE%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>龙卡多尔岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>菲律宾群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E8%87%AA%E7%94%B1%E9%82%A6</t>
+  </si>
+  <si>
+    <t>菲律宾自由邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%B0%BC%E5%85%8B%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>菲尼克斯群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BE%A4%E5%B3%B6%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>太平洋群岛讬管地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>马绍尔群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>密克罗尼西亚联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8A%B3</t>
+  </si>
+  <si>
+    <t>帕劳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>琉球群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9%E8%BF%94%E9%82%84</t>
+  </si>
+  <si>
+    <t>冲绳返还</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>大东群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国领土</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Commonwealth_(U.S._state)</t>
-  </si>
-  <si>
-    <t>en-Commonwealth (U.S. state)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
-  </si>
-  <si>
-    <t>華盛頓哥倫比亞特區</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Commonwealth_(U.S._insular_area)</t>
-  </si>
-  <si>
-    <t>en-Commonwealth (U.S. insular area)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%82%A6_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>自由邦 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_federally_recognized_tribes</t>
-  </si>
-  <si>
-    <t>en-List of federally recognized tribes</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Borough_(United_States)</t>
-  </si>
-  <si>
-    <t>en-Borough (United States)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Consolidated_city-county</t>
-  </si>
-  <si>
-    <t>en-Consolidated city-county</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Independent_city_(United_States)</t>
-  </si>
-  <si>
-    <t>en-Independent city (United States)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>路易斯安那州行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>阿拉斯加州行政区划</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unorganized_Borough,_Alaska</t>
-  </si>
-  <si>
-    <t>en-Unorganized Borough, Alaska</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_recognized_tribes_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-State recognized tribes in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>按人口排列的美國城市列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_towns_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-List of towns in the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_places_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-List of places in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E5%8D%80_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>鎮區 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Consolidated_city-township</t>
-  </si>
-  <si>
-    <t>en-Consolidated city-township</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chapter_house_(Navajo_Nation)</t>
-  </si>
-  <si>
-    <t>en-Chapter house (Navajo Nation)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E9%82%BB%E7%A4%BE%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>近邻社区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美属萨摩亚行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>关岛行政区划</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Districts_and_sub-districts_of_the_United_States_Virgin_Islands</t>
-  </si>
-  <si>
-    <t>en-Districts and sub-districts of the United States Virgin Islands</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Municipalities_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Municipalities of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Protected_areas_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Protected areas of the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Conservation_district</t>
-  </si>
-  <si>
-    <t>en-Conservation district</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
-  </si>
-  <si>
-    <t>國家紀念區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_congressional_districts</t>
-  </si>
-  <si>
-    <t>en-List of United States congressional districts</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88%E7%AE%A1%E7%90%86%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>公寓大廈管理委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%94%E5%90%88%E5%8D%8F%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>自由联合协定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%9F%BA%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>军事基地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>非建制地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%95%87</t>
-  </si>
-  <si>
-    <t>鬼镇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%88%92%E5%88%86</t>
-  </si>
-  <si>
-    <t>Template talk-美国行政划分</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%88%E5%B9%B6%E5%BB%BA%E5%88%B6%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国合并建制领土</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AD%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第六修正案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rio_Rico,_Texas</t>
-  </si>
-  <si>
-    <t>en-Rio Rico, Texas</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
-  </si>
-  <si>
-    <t>夏威夷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%A2%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>西北领地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>美西战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%82%A6</t>
-  </si>
-  <si>
-    <t>自治邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>关岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>美属维尔京群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>美属萨摩亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E5%88%B6</t>
-  </si>
-  <si>
-    <t>建制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Guano_Islands_Act</t>
-  </si>
-  <si>
-    <t>en-Guano Islands Act</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E7%B1%B3%E6%8B%89%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>巴尔米拉环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国内政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Km%C2%B2</t>
-  </si>
-  <si>
-    <t>Km²</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AA%80%E9%A6%99%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>檀香山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>夏威夷王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>夏威夷共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E9%A0%98%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>夏威夷領地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>美国非建制属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E9%82%A3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚那群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84%E8%87%AA%E7%94%B1%E9%82%A6</t>
-  </si>
-  <si>
-    <t>波多黎各自由邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%85%8B%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>贝克岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E5%85%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>豪兰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E7%BB%B4%E6%96%AF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>贾维斯岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E7%BA%B3%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉纳浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>中途岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%BC%97%E6%B2%99%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳弗沙岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>威克岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>莱恩群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E9%81%8B%E6%B2%B3%E5%8D%80</t>
-  </si>
-  <si>
-    <t>巴拿馬運河區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E8%BF%90%E6%B2%B3%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>巴拿马运河条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%BC%8A%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>马伊斯群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E5%8D%A1%E5%A4%9A%E7%88%BE%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>龍卡多爾島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>菲律宾群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E8%87%AA%E7%94%B1%E9%82%A6</t>
-  </si>
-  <si>
-    <t>菲律賓自由邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%B0%BC%E5%85%8B%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>菲尼克斯群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BE%A4%E5%B3%B6%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>太平洋群島託管地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8A%B3</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>琉球群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9%E8%BF%94%E9%82%84</t>
-  </si>
-  <si>
-    <t>沖繩返還</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>大東群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
   </si>
   <si>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1175,13 +1172,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1193,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1205,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1217,13 +1214,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1247,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1319,15 +1316,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1337,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1391,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1427,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1445,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1481,19 +1475,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1505,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1523,13 +1517,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%B0</t>
@@ -1887,7 +1881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I262"/>
+  <dimension ref="A1:I263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3040,7 +3034,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -3066,13 +3060,13 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" t="s">
-        <v>82</v>
-      </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -3095,10 +3089,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>7</v>
@@ -3124,10 +3118,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -3182,10 +3176,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3211,10 +3205,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -3240,10 +3234,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3269,10 +3263,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3298,10 +3292,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3327,10 +3321,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>7</v>
@@ -3356,10 +3350,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3385,10 +3379,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3414,10 +3408,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>11</v>
@@ -3443,10 +3437,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3472,10 +3466,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3501,10 +3495,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
@@ -3530,10 +3524,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>10</v>
@@ -3559,10 +3553,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3588,10 +3582,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3617,10 +3611,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3646,10 +3640,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3675,10 +3669,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>56</v>
@@ -3704,10 +3698,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -3733,10 +3727,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3762,10 +3756,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3791,10 +3785,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3820,10 +3814,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>5</v>
@@ -3849,10 +3843,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -3878,10 +3872,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>14</v>
@@ -3907,10 +3901,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3936,10 +3930,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3965,10 +3959,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3994,10 +3988,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4023,10 +4017,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4052,10 +4046,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4081,10 +4075,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4110,10 +4104,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4139,10 +4133,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4168,10 +4162,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4197,10 +4191,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4226,10 +4220,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4255,10 +4249,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4284,10 +4278,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4313,10 +4307,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4342,10 +4336,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4371,10 +4365,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4400,10 +4394,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4429,10 +4423,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4458,10 +4452,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4487,10 +4481,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4516,10 +4510,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4545,10 +4539,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4574,10 +4568,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4603,10 +4597,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4632,10 +4626,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4661,10 +4655,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4690,10 +4684,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4719,10 +4713,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4748,10 +4742,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -4777,10 +4771,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4806,10 +4800,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4835,10 +4829,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4864,10 +4858,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4893,10 +4887,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4922,10 +4916,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4951,10 +4945,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4980,10 +4974,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5009,10 +5003,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5038,10 +5032,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5067,10 +5061,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5096,10 +5090,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5125,10 +5119,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>86</v>
+      </c>
+      <c r="F112" t="s">
         <v>87</v>
-      </c>
-      <c r="F112" t="s">
-        <v>88</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5154,10 +5148,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>9</v>
@@ -5183,10 +5177,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5212,10 +5206,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5241,10 +5235,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5270,10 +5264,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5299,10 +5293,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5328,10 +5322,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F119" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5357,10 +5351,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5386,10 +5380,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5415,10 +5409,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5444,10 +5438,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5473,10 +5467,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5502,10 +5496,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5531,10 +5525,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5560,10 +5554,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5589,10 +5583,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5618,10 +5612,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5647,10 +5641,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5676,10 +5670,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5705,10 +5699,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5734,10 +5728,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>6</v>
@@ -5763,10 +5757,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5792,10 +5786,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5821,10 +5815,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5850,10 +5844,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>6</v>
@@ -5879,10 +5873,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>100</v>
+      </c>
+      <c r="F138" t="s">
         <v>101</v>
-      </c>
-      <c r="F138" t="s">
-        <v>102</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5908,10 +5902,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5937,10 +5931,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>82</v>
+      </c>
+      <c r="F140" t="s">
         <v>83</v>
-      </c>
-      <c r="F140" t="s">
-        <v>84</v>
       </c>
       <c r="G140" t="n">
         <v>9</v>
@@ -5966,10 +5960,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5995,10 +5989,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6024,10 +6018,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6053,10 +6047,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6082,10 +6076,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -6111,10 +6105,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6140,10 +6134,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6169,10 +6163,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6198,10 +6192,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6227,10 +6221,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>124</v>
+      </c>
+      <c r="F150" t="s">
         <v>125</v>
-      </c>
-      <c r="F150" t="s">
-        <v>126</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6256,10 +6250,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6285,10 +6279,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6314,10 +6308,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6343,10 +6337,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6372,10 +6366,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6401,10 +6395,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -6430,10 +6424,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6459,10 +6453,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6488,10 +6482,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6517,10 +6511,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6546,10 +6540,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6575,10 +6569,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6604,10 +6598,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6633,10 +6627,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6662,10 +6656,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6691,10 +6685,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6720,10 +6714,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6749,10 +6743,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6778,10 +6772,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>6</v>
@@ -6807,10 +6801,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6836,10 +6830,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6894,10 +6888,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6923,10 +6917,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6952,10 +6946,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6981,10 +6975,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7010,10 +7004,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7039,10 +7033,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7068,10 +7062,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7097,10 +7091,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7126,10 +7120,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7155,10 +7149,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7184,10 +7178,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7213,10 +7207,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7242,10 +7236,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7271,10 +7265,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7300,10 +7294,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7329,10 +7323,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7358,10 +7352,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7387,10 +7381,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7416,10 +7410,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7445,10 +7439,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7474,10 +7468,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7503,10 +7497,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7532,10 +7526,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7561,10 +7555,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7619,13 +7613,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7648,10 +7642,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7677,10 +7671,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7706,10 +7700,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7735,10 +7729,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7764,10 +7758,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7793,10 +7787,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7822,10 +7816,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7851,10 +7845,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7880,10 +7874,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7909,10 +7903,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7938,10 +7932,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7967,10 +7961,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7996,10 +7990,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8025,10 +8019,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8054,13 +8048,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8083,13 +8077,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8112,13 +8106,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8141,13 +8135,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8170,10 +8164,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8199,10 +8193,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8228,10 +8222,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8257,10 +8251,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8286,13 +8280,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G221" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8315,13 +8309,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -8344,13 +8338,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -8373,10 +8367,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8402,10 +8396,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8431,10 +8425,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8460,10 +8454,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8489,10 +8483,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8518,10 +8512,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8547,10 +8541,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8576,13 +8570,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -8605,13 +8599,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -8634,10 +8628,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8663,10 +8657,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8692,10 +8686,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8721,10 +8715,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8750,10 +8744,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8779,10 +8773,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8808,13 +8802,13 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -8837,13 +8831,13 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -8866,10 +8860,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8895,10 +8889,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8924,13 +8918,13 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -8953,13 +8947,13 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -8982,10 +8976,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9011,10 +9005,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9040,13 +9034,13 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -9069,13 +9063,13 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -9098,10 +9092,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9127,10 +9121,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9156,10 +9150,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9185,10 +9179,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9214,10 +9208,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9243,10 +9237,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9272,13 +9266,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9301,13 +9295,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9330,10 +9324,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9359,10 +9353,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9388,10 +9382,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9417,10 +9411,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9446,13 +9440,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G261" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -9475,18 +9469,47 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>503</v>
+      </c>
+      <c r="F262" t="s">
+        <v>504</v>
+      </c>
+      <c r="G262" t="n">
+        <v>4</v>
+      </c>
+      <c r="H262" t="s">
+        <v>4</v>
+      </c>
+      <c r="I262" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>262</v>
+      </c>
+      <c r="E263" t="s">
+        <v>503</v>
+      </c>
+      <c r="F263" t="s">
         <v>505</v>
       </c>
-      <c r="F262" t="s">
-        <v>507</v>
-      </c>
-      <c r="G262" t="n">
-        <v>1</v>
-      </c>
-      <c r="H262" t="s">
-        <v>4</v>
-      </c>
-      <c r="I262" t="n">
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+      <c r="H263" t="s">
+        <v>4</v>
+      </c>
+      <c r="I263" t="n">
         <v>3</v>
       </c>
     </row>
